--- a/Architecture/camera_action.xlsx
+++ b/Architecture/camera_action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pduvauchelle\Philippe\Matlab\openGL\Stage Alexandre Biaud (opengl4-2023)\OpenGL_MatlabToolbox\Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C286C-8FF0-433B-922E-111EDA77BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A73254-AC09-4F99-BD45-D524171DADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E1C33388-C857-469C-B03E-9E74924B62D2}"/>
+    <workbookView xWindow="1386" yWindow="774" windowWidth="21732" windowHeight="11544" xr2:uid="{E1C33388-C857-469C-B03E-9E74924B62D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Action</t>
   </si>
@@ -50,9 +50,6 @@
     <t>left click</t>
   </si>
   <si>
-    <t>Free Rotate around world origin</t>
-  </si>
-  <si>
     <t>SHIFT</t>
   </si>
   <si>
@@ -174,6 +171,21 @@
   </si>
   <si>
     <t>CTRL+SHIFT</t>
+  </si>
+  <si>
+    <t>Free Rotate around camera target</t>
+  </si>
+  <si>
+    <t>CTRL=Boost</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Light intensity</t>
+  </si>
+  <si>
+    <t>Vertical=global, horizontal=specular</t>
   </si>
 </sst>
 </file>
@@ -209,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,11 +232,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -232,6 +250,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -241,13 +262,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -269,24 +290,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F23A7B04-27DF-482D-8CCB-89D48F986AEE}" name="Tableau1" displayName="Tableau1" ref="B3:D18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B3:D18" xr:uid="{F23A7B04-27DF-482D-8CCB-89D48F986AEE}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{97D237B9-CE46-4F39-B8EF-3E2607999876}" name="Action" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8422CCE3-7AEA-4A74-9D66-098C1F46D4F7}" name="Mouse" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A78AB4D3-698A-47FE-B027-88CC128A9860}" name="Modifiers" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F23A7B04-27DF-482D-8CCB-89D48F986AEE}" name="Tableau1" displayName="Tableau1" ref="B3:E18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B3:E18" xr:uid="{F23A7B04-27DF-482D-8CCB-89D48F986AEE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{97D237B9-CE46-4F39-B8EF-3E2607999876}" name="Action" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8422CCE3-7AEA-4A74-9D66-098C1F46D4F7}" name="Mouse" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A78AB4D3-698A-47FE-B027-88CC128A9860}" name="Modifiers" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9663A4F1-6BA2-4450-B5CB-215E0107D4B2}" name="Commentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8B4DF82B-B14F-4457-8DB8-BA94C9459E35}" name="Tableau13" displayName="Tableau13" ref="B21:D36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B21:D36" xr:uid="{8B4DF82B-B14F-4457-8DB8-BA94C9459E35}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C9D2501-E2CD-4542-8699-18A9001525F3}" name="Action" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F19B3862-4B52-4666-A017-FD59832EF428}" name="Keyboard" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E92BDEB0-4374-44A0-BA0F-5DC31D28C7D2}" name="Modifiers" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8B4DF82B-B14F-4457-8DB8-BA94C9459E35}" name="Tableau13" displayName="Tableau13" ref="B21:E36" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B21:E36" xr:uid="{8B4DF82B-B14F-4457-8DB8-BA94C9459E35}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6C9D2501-E2CD-4542-8699-18A9001525F3}" name="Action" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F19B3862-4B52-4666-A017-FD59832EF428}" name="Keyboard" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E92BDEB0-4374-44A0-BA0F-5DC31D28C7D2}" name="Modifiers" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D9B595B1-26F3-42B2-8782-7FF1BE0A7BB0}" name="Commentaire" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,19 +612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9109AD39-6C40-41D9-9A4F-8F2AA5ADC6D6}">
-  <dimension ref="B3:D36"/>
+  <dimension ref="B3:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="31.3671875" customWidth="1"/>
     <col min="3" max="4" width="20.3125" customWidth="1"/>
+    <col min="5" max="5" width="28.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,289 +635,338 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>